--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/jonty_lopes_capgemini_com/Documents/Documents/eclipse workspace/CoWinSlotsNotifier/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9C4F4512-C997-42EE-88FF-0C90C74E6ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{039ECCC7-1F45-478D-94B1-F344E0E0A65D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9C4F4512-C997-42EE-88FF-0C90C74E6ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8F625E4B-CC07-4A04-A707-245A5F65BBA4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B62381C5-BBC1-49D2-A5E0-029F79E4377B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>State</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Free</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Covaxin</t>
   </si>
 </sst>
 </file>
@@ -422,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4670FE15-EE54-43D3-947D-2934584F76CA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,20 +473,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/jonty_lopes_capgemini_com/Documents/Documents/eclipse workspace/CoWinSlotsNotifier/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9C4F4512-C997-42EE-88FF-0C90C74E6ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8F625E4B-CC07-4A04-A707-245A5F65BBA4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9C4F4512-C997-42EE-88FF-0C90C74E6ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{41A6F9E5-C056-465C-8E48-D3A1257F0DB5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B62381C5-BBC1-49D2-A5E0-029F79E4377B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Free</t>
+  </si>
+  <si>
+    <t>Covaxin</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4670FE15-EE54-43D3-947D-2934584F76CA}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,6 +479,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
